--- a/UAV case/control/epsilon-new/epsilon-1213.xlsx
+++ b/UAV case/control/epsilon-new/epsilon-1213.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12510"/>
+    <workbookView windowWidth="28800" windowHeight="12510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+  <si>
+    <t>new configure</t>
+  </si>
   <si>
     <t>safety</t>
   </si>
@@ -36,10 +39,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -51,14 +54,120 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -79,63 +188,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,58 +203,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -210,115 +213,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,67 +393,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,31 +408,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,6 +446,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -467,17 +470,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,70 +504,61 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -564,94 +567,95 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -971,10 +975,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:L24"/>
+  <dimension ref="A2:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -994,27 +998,44 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1"/>
       <c r="E3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
+      <c r="N3" t="s">
         <v>3</v>
       </c>
-      <c r="I3" t="s">
+      <c r="O3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="4:9">
+      <c r="P3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="4:16">
       <c r="D4" s="1">
         <v>1e-10</v>
       </c>
@@ -1033,8 +1054,23 @@
       <c r="I4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="4:9">
+      <c r="L4" s="2">
+        <v>0.710446838028708</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.440626780306752</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="4:16">
       <c r="D5" s="1">
         <v>5e-10</v>
       </c>
@@ -1053,8 +1089,23 @@
       <c r="I5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="4:9">
+      <c r="L5" s="2">
+        <v>0.710446838028708</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.440626780306752</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="4:16">
       <c r="D6" s="1">
         <v>1e-9</v>
       </c>
@@ -1073,8 +1124,23 @@
       <c r="I6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="4:9">
+      <c r="L6" s="2">
+        <v>0.710446838028708</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.440626780306752</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="4:16">
       <c r="D7" s="1">
         <v>5e-9</v>
       </c>
@@ -1093,8 +1159,23 @@
       <c r="I7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="4:9">
+      <c r="L7" s="2">
+        <v>0.681303875278596</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.399626515996863</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.950299978116419</v>
+      </c>
+    </row>
+    <row r="8" spans="4:16">
       <c r="D8" s="1">
         <v>1e-8</v>
       </c>
@@ -1113,8 +1194,23 @@
       <c r="I8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="4:9">
+      <c r="L8" s="2">
+        <v>0.6805170042734</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.373860552673322</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.970985985589204</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.841102208476129</v>
+      </c>
+    </row>
+    <row r="9" spans="4:16">
       <c r="D9" s="1">
         <v>5e-8</v>
       </c>
@@ -1133,8 +1229,23 @@
       <c r="I9">
         <v>0.803305071874417</v>
       </c>
-    </row>
-    <row r="10" spans="4:9">
+      <c r="L9" s="2">
+        <v>0.667807419092422</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.384918790701443</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0.847309055090401</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.847309055090401</v>
+      </c>
+    </row>
+    <row r="10" spans="4:16">
       <c r="D10" s="1">
         <v>1e-7</v>
       </c>
@@ -1153,8 +1264,23 @@
       <c r="I10">
         <v>0.730086275026551</v>
       </c>
-    </row>
-    <row r="11" spans="4:9">
+      <c r="L10" s="2">
+        <v>0.66001508965329</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.381378705025763</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.652320601001869</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.653636390475553</v>
+      </c>
+    </row>
+    <row r="11" spans="4:16">
       <c r="D11" s="1">
         <v>5e-7</v>
       </c>
@@ -1173,8 +1299,23 @@
       <c r="I11">
         <v>0.561530211821427</v>
       </c>
-    </row>
-    <row r="12" spans="4:9">
+      <c r="L11" s="2">
+        <v>0.659086297083631</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.37897932422081</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0.651933604097844</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.651933604097844</v>
+      </c>
+    </row>
+    <row r="12" spans="4:16">
       <c r="D12" s="1">
         <v>1e-6</v>
       </c>
@@ -1193,8 +1334,23 @@
       <c r="I12">
         <v>0.40369966172</v>
       </c>
-    </row>
-    <row r="13" spans="4:9">
+      <c r="L12" s="2">
+        <v>0.642299202668614</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.381355740600129</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.946398240949756</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0.669849266230633</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.669464650846017</v>
+      </c>
+    </row>
+    <row r="13" spans="4:16">
       <c r="D13" s="1">
         <v>5e-6</v>
       </c>
@@ -1213,8 +1369,23 @@
       <c r="I13">
         <v>0.286089770871662</v>
       </c>
-    </row>
-    <row r="14" spans="4:9">
+      <c r="L13" s="2">
+        <v>0.560048091246829</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.341347653511078</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0.837646473316065</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0.642865438123937</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.644294009552509</v>
+      </c>
+    </row>
+    <row r="14" spans="4:16">
       <c r="D14" s="1">
         <v>1e-5</v>
       </c>
@@ -1233,8 +1404,23 @@
       <c r="I14">
         <v>0.265637814308802</v>
       </c>
-    </row>
-    <row r="15" spans="4:9">
+      <c r="L14" s="2">
+        <v>0.567290387080255</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.364368744387048</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0.653137549543603</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0.64426195723051</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.64426195723051</v>
+      </c>
+    </row>
+    <row r="15" spans="4:16">
       <c r="D15" s="1">
         <v>5e-5</v>
       </c>
@@ -1253,8 +1439,23 @@
       <c r="I15">
         <v>0.232437275908295</v>
       </c>
-    </row>
-    <row r="16" spans="4:9">
+      <c r="L15" s="2">
+        <v>0.56840015650122</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.363812152615442</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0.652782570675222</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0.642338638416181</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.643951541641987</v>
+      </c>
+    </row>
+    <row r="16" spans="4:16">
       <c r="D16">
         <v>0.0001</v>
       </c>
@@ -1273,8 +1474,23 @@
       <c r="I16">
         <v>0.208628545729247</v>
       </c>
-    </row>
-    <row r="17" spans="4:9">
+      <c r="L16" s="2">
+        <v>0.599326673230477</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.376657307476825</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0.6841918768162</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0.677255133853444</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.655953051356288</v>
+      </c>
+    </row>
+    <row r="17" spans="4:16">
       <c r="D17">
         <v>0.0005</v>
       </c>
@@ -1293,8 +1509,23 @@
       <c r="I17">
         <v>0.245428535530167</v>
       </c>
-    </row>
-    <row r="18" spans="4:9">
+      <c r="L17" s="2">
+        <v>0.562677301397089</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.388756365939045</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0.658197196560256</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0.628834228887774</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.631728194005848</v>
+      </c>
+    </row>
+    <row r="18" spans="4:16">
       <c r="D18">
         <v>0.001</v>
       </c>
@@ -1313,8 +1544,23 @@
       <c r="I18">
         <v>0.231698009969479</v>
       </c>
-    </row>
-    <row r="19" spans="4:9">
+      <c r="L18" s="2">
+        <v>0.595687174814836</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.420572068347275</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0.685223204796976</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0.591115859862391</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.642145546469993</v>
+      </c>
+    </row>
+    <row r="19" spans="4:16">
       <c r="D19">
         <v>0.005</v>
       </c>
@@ -1333,8 +1579,23 @@
       <c r="I19">
         <v>0.224625790829978</v>
       </c>
-    </row>
-    <row r="20" spans="4:9">
+      <c r="L19" s="2">
+        <v>0.584962469922596</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.40090957758904</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0.666785715516129</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0.560324600945237</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.622327994592379</v>
+      </c>
+    </row>
+    <row r="20" spans="4:16">
       <c r="D20">
         <v>0.01</v>
       </c>
@@ -1353,8 +1614,23 @@
       <c r="I20">
         <v>0.190806913927665</v>
       </c>
-    </row>
-    <row r="21" spans="4:9">
+      <c r="L20" s="2">
+        <v>0.52220053398264</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.317744364090238</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0.627064865681348</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0.266105788820808</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0.570423961517736</v>
+      </c>
+    </row>
+    <row r="21" spans="4:16">
       <c r="D21">
         <v>0.05</v>
       </c>
@@ -1373,8 +1649,23 @@
       <c r="I21">
         <v>0.181082852487535</v>
       </c>
-    </row>
-    <row r="22" spans="4:9">
+      <c r="L21" s="2">
+        <v>0.413092613798639</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.284081203305389</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0.61032293438499</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0.202068253315273</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0.53721613417789</v>
+      </c>
+    </row>
+    <row r="22" spans="4:16">
       <c r="D22">
         <v>0.1</v>
       </c>
@@ -1393,8 +1684,23 @@
       <c r="I22">
         <v>0.269928789159558</v>
       </c>
-    </row>
-    <row r="23" spans="4:9">
+      <c r="L22" s="2">
+        <v>0.0769918450541625</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.0848715099530642</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.623535057549341</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0.209159801642868</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0.456497285363398</v>
+      </c>
+    </row>
+    <row r="23" spans="4:16">
       <c r="D23">
         <v>0.5</v>
       </c>
@@ -1413,8 +1719,23 @@
       <c r="I23">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="24" spans="4:9">
+      <c r="L23" s="2">
+        <v>0.0448007904113751</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.0103611499343233</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0.635312214487553</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0.222803026715517</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0.379131472621983</v>
+      </c>
+    </row>
+    <row r="24" spans="4:16">
       <c r="D24">
         <v>1</v>
       </c>
@@ -1431,6 +1752,38 @@
         <v>0</v>
       </c>
       <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0.596076516630808</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0.0548387743965075</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0.0781533555897963</v>
+      </c>
+    </row>
+    <row r="25" spans="12:16">
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
         <v>0</v>
       </c>
     </row>

--- a/UAV case/control/epsilon-new/epsilon-1213.xlsx
+++ b/UAV case/control/epsilon-new/epsilon-1213.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12510"/>
+    <workbookView windowWidth="21000" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,31 +39,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -74,93 +60,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,10 +90,25 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,6 +119,83 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -213,187 +206,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,16 +401,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -446,6 +439,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -463,9 +465,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,36 +497,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -525,137 +518,137 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -975,10 +968,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:P25"/>
+  <dimension ref="A2:W25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1035,7 +1028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="4:16">
+    <row r="4" spans="4:23">
       <c r="D4" s="1">
         <v>1e-10</v>
       </c>
@@ -1069,8 +1062,23 @@
       <c r="P4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="4:16">
+      <c r="S4">
+        <v>0.712194847613344</v>
+      </c>
+      <c r="T4">
+        <v>0.470818572834192</v>
+      </c>
+      <c r="U4">
+        <v>0.998780487804878</v>
+      </c>
+      <c r="V4">
+        <v>0.998780487804878</v>
+      </c>
+      <c r="W4">
+        <v>0.998780487804878</v>
+      </c>
+    </row>
+    <row r="5" spans="4:23">
       <c r="D5" s="1">
         <v>5e-10</v>
       </c>
@@ -1089,6 +1097,9 @@
       <c r="I5">
         <v>1</v>
       </c>
+      <c r="K5" s="1">
+        <v>1e-10</v>
+      </c>
       <c r="L5" s="2">
         <v>0.710446838028708</v>
       </c>
@@ -1104,8 +1115,23 @@
       <c r="P5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="4:16">
+      <c r="S5">
+        <v>0.712194847613344</v>
+      </c>
+      <c r="T5">
+        <v>0.470818572834192</v>
+      </c>
+      <c r="U5">
+        <v>0.998780487804878</v>
+      </c>
+      <c r="V5">
+        <v>0.998780487804878</v>
+      </c>
+      <c r="W5">
+        <v>0.998780487804878</v>
+      </c>
+    </row>
+    <row r="6" spans="4:23">
       <c r="D6" s="1">
         <v>1e-9</v>
       </c>
@@ -1124,6 +1150,9 @@
       <c r="I6">
         <v>1</v>
       </c>
+      <c r="K6" s="1">
+        <v>5e-10</v>
+      </c>
       <c r="L6" s="2">
         <v>0.710446838028708</v>
       </c>
@@ -1139,8 +1168,23 @@
       <c r="P6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="4:16">
+      <c r="S6">
+        <v>0.718014211776538</v>
+      </c>
+      <c r="T6">
+        <v>0.48970385813712</v>
+      </c>
+      <c r="U6">
+        <v>0.985554862643294</v>
+      </c>
+      <c r="V6">
+        <v>0.985554862643294</v>
+      </c>
+      <c r="W6">
+        <v>0.985554862643294</v>
+      </c>
+    </row>
+    <row r="7" spans="4:23">
       <c r="D7" s="1">
         <v>5e-9</v>
       </c>
@@ -1159,6 +1203,9 @@
       <c r="I7">
         <v>1</v>
       </c>
+      <c r="K7" s="1">
+        <v>1e-9</v>
+      </c>
       <c r="L7" s="2">
         <v>0.681303875278596</v>
       </c>
@@ -1174,8 +1221,23 @@
       <c r="P7" s="2">
         <v>0.950299978116419</v>
       </c>
-    </row>
-    <row r="8" spans="4:16">
+      <c r="S7">
+        <v>0.725208694990157</v>
+      </c>
+      <c r="T7">
+        <v>0.504948168743585</v>
+      </c>
+      <c r="U7">
+        <v>0.961006166263437</v>
+      </c>
+      <c r="V7">
+        <v>0.961006166263437</v>
+      </c>
+      <c r="W7">
+        <v>0.961006166263437</v>
+      </c>
+    </row>
+    <row r="8" spans="4:23">
       <c r="D8" s="1">
         <v>1e-8</v>
       </c>
@@ -1194,6 +1256,9 @@
       <c r="I8">
         <v>1</v>
       </c>
+      <c r="K8" s="1">
+        <v>5e-9</v>
+      </c>
       <c r="L8" s="2">
         <v>0.6805170042734</v>
       </c>
@@ -1209,8 +1274,23 @@
       <c r="P8" s="2">
         <v>0.841102208476129</v>
       </c>
-    </row>
-    <row r="9" spans="4:16">
+      <c r="S8">
+        <v>0.720341140421159</v>
+      </c>
+      <c r="T8">
+        <v>0.489167924570444</v>
+      </c>
+      <c r="U8">
+        <v>0.956337279840943</v>
+      </c>
+      <c r="V8">
+        <v>0.956337279840943</v>
+      </c>
+      <c r="W8">
+        <v>0.956337279840943</v>
+      </c>
+    </row>
+    <row r="9" spans="4:23">
       <c r="D9" s="1">
         <v>5e-8</v>
       </c>
@@ -1229,6 +1309,9 @@
       <c r="I9">
         <v>0.803305071874417</v>
       </c>
+      <c r="K9" s="1">
+        <v>1e-8</v>
+      </c>
       <c r="L9" s="2">
         <v>0.667807419092422</v>
       </c>
@@ -1243,6 +1326,21 @@
       </c>
       <c r="P9" s="2">
         <v>0.847309055090401</v>
+      </c>
+      <c r="S9">
+        <v>0.672020303689325</v>
+      </c>
+      <c r="T9">
+        <v>0.513902478135988</v>
+      </c>
+      <c r="U9">
+        <v>0.869550703975375</v>
+      </c>
+      <c r="V9">
+        <v>0.869550703975375</v>
+      </c>
+      <c r="W9">
+        <v>0.868387913277701</v>
       </c>
     </row>
     <row r="10" spans="4:16">
@@ -1264,6 +1362,9 @@
       <c r="I10">
         <v>0.730086275026551</v>
       </c>
+      <c r="K10" s="1">
+        <v>5e-8</v>
+      </c>
       <c r="L10" s="2">
         <v>0.66001508965329</v>
       </c>
@@ -1299,6 +1400,9 @@
       <c r="I11">
         <v>0.561530211821427</v>
       </c>
+      <c r="K11" s="1">
+        <v>1e-7</v>
+      </c>
       <c r="L11" s="2">
         <v>0.659086297083631</v>
       </c>
@@ -1334,6 +1438,9 @@
       <c r="I12">
         <v>0.40369966172</v>
       </c>
+      <c r="K12" s="1">
+        <v>5e-7</v>
+      </c>
       <c r="L12" s="2">
         <v>0.642299202668614</v>
       </c>
@@ -1369,6 +1476,9 @@
       <c r="I13">
         <v>0.286089770871662</v>
       </c>
+      <c r="K13" s="1">
+        <v>1e-6</v>
+      </c>
       <c r="L13" s="2">
         <v>0.560048091246829</v>
       </c>
@@ -1404,6 +1514,9 @@
       <c r="I14">
         <v>0.265637814308802</v>
       </c>
+      <c r="K14" s="1">
+        <v>5e-6</v>
+      </c>
       <c r="L14" s="2">
         <v>0.567290387080255</v>
       </c>
@@ -1439,6 +1552,9 @@
       <c r="I15">
         <v>0.232437275908295</v>
       </c>
+      <c r="K15" s="1">
+        <v>1e-5</v>
+      </c>
       <c r="L15" s="2">
         <v>0.56840015650122</v>
       </c>
@@ -1474,6 +1590,9 @@
       <c r="I16">
         <v>0.208628545729247</v>
       </c>
+      <c r="K16" s="1">
+        <v>5e-5</v>
+      </c>
       <c r="L16" s="2">
         <v>0.599326673230477</v>
       </c>
@@ -1509,6 +1628,9 @@
       <c r="I17">
         <v>0.245428535530167</v>
       </c>
+      <c r="K17" s="1">
+        <v>0.0001</v>
+      </c>
       <c r="L17" s="2">
         <v>0.562677301397089</v>
       </c>
@@ -1544,6 +1666,9 @@
       <c r="I18">
         <v>0.231698009969479</v>
       </c>
+      <c r="K18" s="1">
+        <v>0.0005</v>
+      </c>
       <c r="L18" s="2">
         <v>0.595687174814836</v>
       </c>
@@ -1579,6 +1704,9 @@
       <c r="I19">
         <v>0.224625790829978</v>
       </c>
+      <c r="K19" s="1">
+        <v>0.001</v>
+      </c>
       <c r="L19" s="2">
         <v>0.584962469922596</v>
       </c>
@@ -1614,6 +1742,9 @@
       <c r="I20">
         <v>0.190806913927665</v>
       </c>
+      <c r="K20" s="1">
+        <v>0.005</v>
+      </c>
       <c r="L20" s="2">
         <v>0.52220053398264</v>
       </c>
@@ -1649,6 +1780,9 @@
       <c r="I21">
         <v>0.181082852487535</v>
       </c>
+      <c r="K21" s="1">
+        <v>0.01</v>
+      </c>
       <c r="L21" s="2">
         <v>0.413092613798639</v>
       </c>
@@ -1684,6 +1818,9 @@
       <c r="I22">
         <v>0.269928789159558</v>
       </c>
+      <c r="K22" s="1">
+        <v>0.05</v>
+      </c>
       <c r="L22" s="2">
         <v>0.0769918450541625</v>
       </c>
@@ -1719,6 +1856,9 @@
       <c r="I23">
         <v>0.2</v>
       </c>
+      <c r="K23" s="1">
+        <v>0.1</v>
+      </c>
       <c r="L23" s="2">
         <v>0.0448007904113751</v>
       </c>
@@ -1754,6 +1894,9 @@
       <c r="I24">
         <v>0</v>
       </c>
+      <c r="K24" s="1">
+        <v>0.5</v>
+      </c>
       <c r="L24" s="2">
         <v>0</v>
       </c>
@@ -1770,7 +1913,10 @@
         <v>0.0781533555897963</v>
       </c>
     </row>
-    <row r="25" spans="12:16">
+    <row r="25" spans="11:16">
+      <c r="K25">
+        <v>0</v>
+      </c>
       <c r="L25" s="2">
         <v>0</v>
       </c>

--- a/UAV case/control/epsilon-new/epsilon-1213.xlsx
+++ b/UAV case/control/epsilon-new/epsilon-1213.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11640"/>
+    <workbookView windowWidth="28245" windowHeight="12510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
   <si>
     <t>new configure</t>
+  </si>
+  <si>
+    <t>0121 configure</t>
   </si>
   <si>
     <t>safety</t>
@@ -39,10 +42,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -53,37 +56,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,13 +72,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -112,17 +80,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,17 +95,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,8 +133,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,16 +193,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,187 +209,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,6 +400,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -419,96 +496,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -518,130 +521,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -971,7 +974,7 @@
   <dimension ref="A2:W25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+      <selection activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -979,7 +982,7 @@
     <col min="7" max="9" width="12.8571428571429"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:19">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -994,38 +997,56 @@
       <c r="L2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="S2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1"/>
       <c r="E3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="M3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
+      <c r="N3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" t="s">
+      <c r="O3" t="s">
         <v>5</v>
       </c>
-      <c r="L3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" t="s">
         <v>2</v>
       </c>
-      <c r="N3" t="s">
+      <c r="T3" t="s">
         <v>3</v>
       </c>
-      <c r="O3" t="s">
+      <c r="U3" t="s">
         <v>4</v>
       </c>
-      <c r="P3" t="s">
+      <c r="V3" t="s">
         <v>5</v>
+      </c>
+      <c r="W3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="4:23">
@@ -1062,20 +1083,23 @@
       <c r="P4" s="2">
         <v>1</v>
       </c>
-      <c r="S4">
-        <v>0.712194847613344</v>
-      </c>
-      <c r="T4">
-        <v>0.470818572834192</v>
-      </c>
-      <c r="U4">
-        <v>0.998780487804878</v>
-      </c>
-      <c r="V4">
-        <v>0.998780487804878</v>
-      </c>
-      <c r="W4">
-        <v>0.998780487804878</v>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.184689571270785</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.242184210132359</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0.0147855730007026</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0.0957224693891927</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.316478834566274</v>
       </c>
     </row>
     <row r="5" spans="4:23">
@@ -1115,20 +1139,23 @@
       <c r="P5" s="2">
         <v>1</v>
       </c>
-      <c r="S5">
-        <v>0.712194847613344</v>
-      </c>
-      <c r="T5">
-        <v>0.470818572834192</v>
-      </c>
-      <c r="U5">
-        <v>0.998780487804878</v>
-      </c>
-      <c r="V5">
-        <v>0.998780487804878</v>
-      </c>
-      <c r="W5">
-        <v>0.998780487804878</v>
+      <c r="R5" s="1">
+        <v>1e-10</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.35483727371649</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.97273594276334</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.0348204570184984</v>
       </c>
     </row>
     <row r="6" spans="4:23">
@@ -1168,20 +1195,23 @@
       <c r="P6" s="2">
         <v>1</v>
       </c>
-      <c r="S6">
-        <v>0.718014211776538</v>
-      </c>
-      <c r="T6">
-        <v>0.48970385813712</v>
-      </c>
-      <c r="U6">
-        <v>0.985554862643294</v>
-      </c>
-      <c r="V6">
-        <v>0.985554862643294</v>
-      </c>
-      <c r="W6">
-        <v>0.985554862643294</v>
+      <c r="R6" s="1">
+        <v>5e-10</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.35483727371649</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0.97273594276334</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0.0348204570184984</v>
       </c>
     </row>
     <row r="7" spans="4:23">
@@ -1221,21 +1251,14 @@
       <c r="P7" s="2">
         <v>0.950299978116419</v>
       </c>
-      <c r="S7">
-        <v>0.725208694990157</v>
-      </c>
-      <c r="T7">
-        <v>0.504948168743585</v>
-      </c>
-      <c r="U7">
-        <v>0.961006166263437</v>
-      </c>
-      <c r="V7">
-        <v>0.961006166263437</v>
-      </c>
-      <c r="W7">
-        <v>0.961006166263437</v>
-      </c>
+      <c r="R7" s="1">
+        <v>1e-9</v>
+      </c>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
     </row>
     <row r="8" spans="4:23">
       <c r="D8" s="1">
@@ -1274,21 +1297,14 @@
       <c r="P8" s="2">
         <v>0.841102208476129</v>
       </c>
-      <c r="S8">
-        <v>0.720341140421159</v>
-      </c>
-      <c r="T8">
-        <v>0.489167924570444</v>
-      </c>
-      <c r="U8">
-        <v>0.956337279840943</v>
-      </c>
-      <c r="V8">
-        <v>0.956337279840943</v>
-      </c>
-      <c r="W8">
-        <v>0.956337279840943</v>
-      </c>
+      <c r="R8" s="1">
+        <v>5e-9</v>
+      </c>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
     </row>
     <row r="9" spans="4:23">
       <c r="D9" s="1">
@@ -1327,23 +1343,16 @@
       <c r="P9" s="2">
         <v>0.847309055090401</v>
       </c>
-      <c r="S9">
-        <v>0.672020303689325</v>
-      </c>
-      <c r="T9">
-        <v>0.513902478135988</v>
-      </c>
-      <c r="U9">
-        <v>0.869550703975375</v>
-      </c>
-      <c r="V9">
-        <v>0.869550703975375</v>
-      </c>
-      <c r="W9">
-        <v>0.868387913277701</v>
-      </c>
-    </row>
-    <row r="10" spans="4:16">
+      <c r="R9" s="1">
+        <v>1e-8</v>
+      </c>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+    </row>
+    <row r="10" spans="4:23">
       <c r="D10" s="1">
         <v>1e-7</v>
       </c>
@@ -1380,8 +1389,16 @@
       <c r="P10" s="2">
         <v>0.653636390475553</v>
       </c>
-    </row>
-    <row r="11" spans="4:16">
+      <c r="R10" s="1">
+        <v>5e-8</v>
+      </c>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+    </row>
+    <row r="11" spans="4:23">
       <c r="D11" s="1">
         <v>5e-7</v>
       </c>
@@ -1418,8 +1435,16 @@
       <c r="P11" s="2">
         <v>0.651933604097844</v>
       </c>
-    </row>
-    <row r="12" spans="4:16">
+      <c r="R11" s="1">
+        <v>1e-7</v>
+      </c>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+    </row>
+    <row r="12" spans="4:23">
       <c r="D12" s="1">
         <v>1e-6</v>
       </c>
@@ -1456,8 +1481,16 @@
       <c r="P12" s="2">
         <v>0.669464650846017</v>
       </c>
-    </row>
-    <row r="13" spans="4:16">
+      <c r="R12" s="1">
+        <v>5e-7</v>
+      </c>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+    </row>
+    <row r="13" spans="4:23">
       <c r="D13" s="1">
         <v>5e-6</v>
       </c>
@@ -1494,8 +1527,16 @@
       <c r="P13" s="2">
         <v>0.644294009552509</v>
       </c>
-    </row>
-    <row r="14" spans="4:16">
+      <c r="R13" s="1">
+        <v>1e-6</v>
+      </c>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+    </row>
+    <row r="14" spans="4:23">
       <c r="D14" s="1">
         <v>1e-5</v>
       </c>
@@ -1532,8 +1573,26 @@
       <c r="P14" s="2">
         <v>0.64426195723051</v>
       </c>
-    </row>
-    <row r="15" spans="4:16">
+      <c r="R14" s="1">
+        <v>5e-6</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0.35483727371649</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0.97273594276334</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0.0348204570184984</v>
+      </c>
+    </row>
+    <row r="15" spans="4:23">
       <c r="D15" s="1">
         <v>5e-5</v>
       </c>
@@ -1570,8 +1629,26 @@
       <c r="P15" s="2">
         <v>0.643951541641987</v>
       </c>
-    </row>
-    <row r="16" spans="4:16">
+      <c r="R15" s="1">
+        <v>1e-5</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0.35483727371649</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0.97273594276334</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0</v>
+      </c>
+      <c r="W15" s="2">
+        <v>0.0348204570184984</v>
+      </c>
+    </row>
+    <row r="16" spans="4:23">
       <c r="D16">
         <v>0.0001</v>
       </c>
@@ -1608,8 +1685,26 @@
       <c r="P16" s="2">
         <v>0.655953051356288</v>
       </c>
-    </row>
-    <row r="17" spans="4:16">
+      <c r="R16" s="1">
+        <v>5e-5</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0.355879851143009</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0.974039164546488</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2">
+        <v>0</v>
+      </c>
+      <c r="W16" s="2">
+        <v>0.0336842105263158</v>
+      </c>
+    </row>
+    <row r="17" spans="4:23">
       <c r="D17">
         <v>0.0005</v>
       </c>
@@ -1646,8 +1741,26 @@
       <c r="P17" s="2">
         <v>0.631728194005848</v>
       </c>
-    </row>
-    <row r="18" spans="4:16">
+      <c r="R17" s="1">
+        <v>0.0001</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0.355879851143009</v>
+      </c>
+      <c r="T17" s="2">
+        <v>0.974039164546488</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0</v>
+      </c>
+      <c r="V17" s="2">
+        <v>0</v>
+      </c>
+      <c r="W17" s="2">
+        <v>0.0336842105263158</v>
+      </c>
+    </row>
+    <row r="18" spans="4:23">
       <c r="D18">
         <v>0.001</v>
       </c>
@@ -1684,8 +1797,26 @@
       <c r="P18" s="2">
         <v>0.642145546469993</v>
       </c>
-    </row>
-    <row r="19" spans="4:16">
+      <c r="R18" s="1">
+        <v>0.0005</v>
+      </c>
+      <c r="S18" s="2">
+        <v>0.355879851143009</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0.860402800910124</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0</v>
+      </c>
+      <c r="V18" s="2">
+        <v>0</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0.0336842105263158</v>
+      </c>
+    </row>
+    <row r="19" spans="4:23">
       <c r="D19">
         <v>0.005</v>
       </c>
@@ -1722,8 +1853,26 @@
       <c r="P19" s="2">
         <v>0.622327994592379</v>
       </c>
-    </row>
-    <row r="20" spans="4:16">
+      <c r="R19" s="1">
+        <v>0.001</v>
+      </c>
+      <c r="S19" s="2">
+        <v>0.355879851143009</v>
+      </c>
+      <c r="T19" s="2">
+        <v>0.860402800910124</v>
+      </c>
+      <c r="U19" s="2">
+        <v>0</v>
+      </c>
+      <c r="V19" s="2">
+        <v>0</v>
+      </c>
+      <c r="W19" s="2">
+        <v>0.0336842105263158</v>
+      </c>
+    </row>
+    <row r="20" spans="4:23">
       <c r="D20">
         <v>0.01</v>
       </c>
@@ -1760,8 +1909,26 @@
       <c r="P20" s="2">
         <v>0.570423961517736</v>
       </c>
-    </row>
-    <row r="21" spans="4:16">
+      <c r="R20" s="1">
+        <v>0.005</v>
+      </c>
+      <c r="S20" s="2">
+        <v>0.355879851143009</v>
+      </c>
+      <c r="T20" s="2">
+        <v>0.860402800910124</v>
+      </c>
+      <c r="U20" s="2">
+        <v>0</v>
+      </c>
+      <c r="V20" s="2">
+        <v>0</v>
+      </c>
+      <c r="W20" s="2">
+        <v>0.0336842105263158</v>
+      </c>
+    </row>
+    <row r="21" spans="4:23">
       <c r="D21">
         <v>0.05</v>
       </c>
@@ -1798,8 +1965,26 @@
       <c r="P21" s="2">
         <v>0.53721613417789</v>
       </c>
-    </row>
-    <row r="22" spans="4:16">
+      <c r="R21" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0.358515693385019</v>
+      </c>
+      <c r="T21" s="2">
+        <v>0.859295953093655</v>
+      </c>
+      <c r="U21" s="2">
+        <v>0</v>
+      </c>
+      <c r="V21" s="2">
+        <v>0</v>
+      </c>
+      <c r="W21" s="2">
+        <v>0.0352132049518569</v>
+      </c>
+    </row>
+    <row r="22" spans="4:23">
       <c r="D22">
         <v>0.1</v>
       </c>
@@ -1836,8 +2021,26 @@
       <c r="P22" s="2">
         <v>0.456497285363398</v>
       </c>
-    </row>
-    <row r="23" spans="4:16">
+      <c r="R22" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="S22" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="T22" s="2">
+        <v>1.4121990337399</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0</v>
+      </c>
+      <c r="V22" s="2">
+        <v>0</v>
+      </c>
+      <c r="W22" s="2">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="23" spans="4:23">
       <c r="D23">
         <v>0.5</v>
       </c>
@@ -1874,8 +2077,26 @@
       <c r="P23" s="2">
         <v>0.379131472621983</v>
       </c>
-    </row>
-    <row r="24" spans="4:16">
+      <c r="R23" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="S23" s="2">
+        <v>3.15</v>
+      </c>
+      <c r="T23" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="U23" s="2">
+        <v>0</v>
+      </c>
+      <c r="V23" s="2">
+        <v>0</v>
+      </c>
+      <c r="W23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:23">
       <c r="D24">
         <v>1</v>
       </c>
@@ -1912,8 +2133,16 @@
       <c r="P24" s="2">
         <v>0.0781533555897963</v>
       </c>
-    </row>
-    <row r="25" spans="11:16">
+      <c r="R24" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+    </row>
+    <row r="25" spans="11:23">
       <c r="K25">
         <v>0</v>
       </c>
@@ -1932,6 +2161,14 @@
       <c r="P25" s="2">
         <v>0</v>
       </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
